--- a/ApiResponceComp/Files/File2.xlsx
+++ b/ApiResponceComp/Files/File2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b0097042/git/apiJSONResponceComparison/ApiResponceComp/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0405550-A3C5-C642-BB6A-3D4D0102282D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6376BDAB-8AB9-074E-B7DF-2DC2C166EDD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16540" xr2:uid="{1B01E3E8-12D0-B044-9CB0-80734E70ACBB}"/>
+    <workbookView xWindow="7200" yWindow="640" windowWidth="28040" windowHeight="16540" xr2:uid="{1B01E3E8-12D0-B044-9CB0-80734E70ACBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>https://reqres.in/api/users/3</t>
   </si>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22E0AE4-F9D2-8D45-9F93-DA237716DD25}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -419,6 +419,66 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
